--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ccl25-Ccr10.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ccl25-Ccr10.xlsx
@@ -528,7 +528,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.804102</v>
+        <v>5.230988666666666</v>
       </c>
       <c r="H2">
-        <v>14.412306</v>
+        <v>15.692966</v>
       </c>
       <c r="I2">
-        <v>0.2049869746002893</v>
+        <v>0.2129406655351238</v>
       </c>
       <c r="J2">
-        <v>0.2049869746002893</v>
+        <v>0.2129406655351238</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.4846943333333333</v>
+        <v>0.5706193333333334</v>
       </c>
       <c r="N2">
-        <v>1.454083</v>
+        <v>1.711858</v>
       </c>
       <c r="O2">
-        <v>0.6433016390425528</v>
+        <v>0.4188640502130462</v>
       </c>
       <c r="P2">
-        <v>0.6433016390425528</v>
+        <v>0.4188640502130463</v>
       </c>
       <c r="Q2">
-        <v>2.328521016155333</v>
+        <v>2.984903265647555</v>
       </c>
       <c r="R2">
-        <v>20.956689145398</v>
+        <v>26.864129390828</v>
       </c>
       <c r="S2">
-        <v>0.1318684567427402</v>
+        <v>0.08919318962110356</v>
       </c>
       <c r="T2">
-        <v>0.1318684567427402</v>
+        <v>0.08919318962110358</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +590,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.804102</v>
+        <v>5.230988666666666</v>
       </c>
       <c r="H3">
-        <v>14.412306</v>
+        <v>15.692966</v>
       </c>
       <c r="I3">
-        <v>0.2049869746002893</v>
+        <v>0.2129406655351238</v>
       </c>
       <c r="J3">
-        <v>0.2049869746002893</v>
+        <v>0.2129406655351238</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -617,28 +617,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.2197996666666667</v>
+        <v>0.4846943333333333</v>
       </c>
       <c r="N3">
-        <v>0.6593990000000001</v>
+        <v>1.454083</v>
       </c>
       <c r="O3">
-        <v>0.2917250648573845</v>
+        <v>0.3557906641356566</v>
       </c>
       <c r="P3">
-        <v>0.2917250648573845</v>
+        <v>0.3557906641356566</v>
       </c>
       <c r="Q3">
-        <v>1.055940018232667</v>
+        <v>2.535430564464221</v>
       </c>
       <c r="R3">
-        <v>9.503460164094001</v>
+        <v>22.818875080178</v>
       </c>
       <c r="S3">
-        <v>0.05979983846018842</v>
+        <v>0.0757623008122304</v>
       </c>
       <c r="T3">
-        <v>0.05979983846018842</v>
+        <v>0.07576230081223041</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.804102</v>
+        <v>5.230988666666666</v>
       </c>
       <c r="H4">
-        <v>14.412306</v>
+        <v>15.692966</v>
       </c>
       <c r="I4">
-        <v>0.2049869746002893</v>
+        <v>0.2129406655351238</v>
       </c>
       <c r="J4">
-        <v>0.2049869746002893</v>
+        <v>0.2129406655351238</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.048954</v>
+        <v>0.3069883333333334</v>
       </c>
       <c r="N4">
-        <v>0.146862</v>
+        <v>0.920965</v>
       </c>
       <c r="O4">
-        <v>0.06497329610006264</v>
+        <v>0.2253452856512971</v>
       </c>
       <c r="P4">
-        <v>0.06497329610006264</v>
+        <v>0.2253452856512971</v>
       </c>
       <c r="Q4">
-        <v>0.235180009308</v>
+        <v>1.605852492465556</v>
       </c>
       <c r="R4">
-        <v>2.116620083772</v>
+        <v>14.45267243219</v>
       </c>
       <c r="S4">
-        <v>0.01331867939736061</v>
+        <v>0.04798517510178978</v>
       </c>
       <c r="T4">
-        <v>0.01331867939736061</v>
+        <v>0.04798517510178978</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,40 +729,40 @@
         <v>25.467825</v>
       </c>
       <c r="I5">
-        <v>0.3622301938634672</v>
+        <v>0.345577477529236</v>
       </c>
       <c r="J5">
-        <v>0.3622301938634672</v>
+        <v>0.3455774775292359</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.4846943333333333</v>
+        <v>0.5706193333333334</v>
       </c>
       <c r="N5">
-        <v>1.454083</v>
+        <v>1.711858</v>
       </c>
       <c r="O5">
-        <v>0.6433016390425528</v>
+        <v>0.4188640502130462</v>
       </c>
       <c r="P5">
-        <v>0.6433016390425528</v>
+        <v>0.4188640502130463</v>
       </c>
       <c r="Q5">
-        <v>4.114703486608333</v>
+        <v>4.844144440983333</v>
       </c>
       <c r="R5">
-        <v>37.032331379475</v>
+        <v>43.59729996885</v>
       </c>
       <c r="S5">
-        <v>0.2330232774230701</v>
+        <v>0.1447499819003037</v>
       </c>
       <c r="T5">
-        <v>0.2330232774230701</v>
+        <v>0.1447499819003037</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,10 +791,10 @@
         <v>25.467825</v>
       </c>
       <c r="I6">
-        <v>0.3622301938634672</v>
+        <v>0.345577477529236</v>
       </c>
       <c r="J6">
-        <v>0.3622301938634672</v>
+        <v>0.3455774775292359</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -803,28 +803,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.2197996666666667</v>
+        <v>0.4846943333333333</v>
       </c>
       <c r="N6">
-        <v>0.6593990000000001</v>
+        <v>1.454083</v>
       </c>
       <c r="O6">
-        <v>0.2917250648573845</v>
+        <v>0.3557906641356566</v>
       </c>
       <c r="P6">
-        <v>0.2917250648573845</v>
+        <v>0.3557906641356566</v>
       </c>
       <c r="Q6">
-        <v>1.865939815241667</v>
+        <v>4.114703486608333</v>
       </c>
       <c r="R6">
-        <v>16.793458337175</v>
+        <v>37.03233137947499</v>
       </c>
       <c r="S6">
-        <v>0.1056716267981229</v>
+        <v>0.1229532402404518</v>
       </c>
       <c r="T6">
-        <v>0.1056716267981229</v>
+        <v>0.1229532402404518</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,40 +853,40 @@
         <v>25.467825</v>
       </c>
       <c r="I7">
-        <v>0.3622301938634672</v>
+        <v>0.345577477529236</v>
       </c>
       <c r="J7">
-        <v>0.3622301938634672</v>
+        <v>0.3455774775292359</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.048954</v>
+        <v>0.3069883333333334</v>
       </c>
       <c r="N7">
-        <v>0.146862</v>
+        <v>0.920965</v>
       </c>
       <c r="O7">
-        <v>0.06497329610006264</v>
+        <v>0.2253452856512971</v>
       </c>
       <c r="P7">
-        <v>0.06497329610006264</v>
+        <v>0.2253452856512971</v>
       </c>
       <c r="Q7">
-        <v>0.4155839683499999</v>
+        <v>2.606108383458333</v>
       </c>
       <c r="R7">
-        <v>3.74025571515</v>
+        <v>23.454975451125</v>
       </c>
       <c r="S7">
-        <v>0.02353528964227414</v>
+        <v>0.07787425538848038</v>
       </c>
       <c r="T7">
-        <v>0.02353528964227414</v>
+        <v>0.07787425538848038</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,46 +909,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.823586333333332</v>
+        <v>8.418577333333333</v>
       </c>
       <c r="H8">
-        <v>23.470759</v>
+        <v>25.255732</v>
       </c>
       <c r="I8">
-        <v>0.3338258207244912</v>
+        <v>0.3426995496362334</v>
       </c>
       <c r="J8">
-        <v>0.3338258207244912</v>
+        <v>0.3426995496362334</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.4846943333333333</v>
+        <v>0.5706193333333334</v>
       </c>
       <c r="N8">
-        <v>1.454083</v>
+        <v>1.711858</v>
       </c>
       <c r="O8">
-        <v>0.6433016390425528</v>
+        <v>0.4188640502130462</v>
       </c>
       <c r="P8">
-        <v>0.6433016390425528</v>
+        <v>0.4188640502130463</v>
       </c>
       <c r="Q8">
-        <v>3.792047962110777</v>
+        <v>4.803802985561778</v>
       </c>
       <c r="R8">
-        <v>34.12843165899699</v>
+        <v>43.23422687005601</v>
       </c>
       <c r="S8">
-        <v>0.2147506976267906</v>
+        <v>0.1435445213668196</v>
       </c>
       <c r="T8">
-        <v>0.2147506976267906</v>
+        <v>0.1435445213668196</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.823586333333332</v>
+        <v>8.418577333333333</v>
       </c>
       <c r="H9">
-        <v>23.470759</v>
+        <v>25.255732</v>
       </c>
       <c r="I9">
-        <v>0.3338258207244912</v>
+        <v>0.3426995496362334</v>
       </c>
       <c r="J9">
-        <v>0.3338258207244912</v>
+        <v>0.3426995496362334</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -989,28 +989,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.2197996666666667</v>
+        <v>0.4846943333333333</v>
       </c>
       <c r="N9">
-        <v>0.6593990000000001</v>
+        <v>1.454083</v>
       </c>
       <c r="O9">
-        <v>0.2917250648573845</v>
+        <v>0.3557906641356566</v>
       </c>
       <c r="P9">
-        <v>0.2917250648573845</v>
+        <v>0.3557906641356566</v>
       </c>
       <c r="Q9">
-        <v>1.719621668204556</v>
+        <v>4.080436728195111</v>
       </c>
       <c r="R9">
-        <v>15.476595013841</v>
+        <v>36.723930553756</v>
       </c>
       <c r="S9">
-        <v>0.09738535920192183</v>
+        <v>0.1219293003640659</v>
       </c>
       <c r="T9">
-        <v>0.09738535920192183</v>
+        <v>0.1219293003640659</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1024,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.823586333333332</v>
+        <v>8.418577333333333</v>
       </c>
       <c r="H10">
-        <v>23.470759</v>
+        <v>25.255732</v>
       </c>
       <c r="I10">
-        <v>0.3338258207244912</v>
+        <v>0.3426995496362334</v>
       </c>
       <c r="J10">
-        <v>0.3338258207244912</v>
+        <v>0.3426995496362334</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.048954</v>
+        <v>0.3069883333333334</v>
       </c>
       <c r="N10">
-        <v>0.146862</v>
+        <v>0.920965</v>
       </c>
       <c r="O10">
-        <v>0.06497329610006264</v>
+        <v>0.2253452856512971</v>
       </c>
       <c r="P10">
-        <v>0.06497329610006264</v>
+        <v>0.2253452856512971</v>
       </c>
       <c r="Q10">
-        <v>0.3829958453619999</v>
+        <v>2.584405024597778</v>
       </c>
       <c r="R10">
-        <v>3.446962608258</v>
+        <v>23.25964522138</v>
       </c>
       <c r="S10">
-        <v>0.0216897638957788</v>
+        <v>0.07722572790534789</v>
       </c>
       <c r="T10">
-        <v>0.0216897638957788</v>
+        <v>0.07722572790534789</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,7 +1086,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1095,46 +1095,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.319169666666667</v>
+        <v>2.426634333333333</v>
       </c>
       <c r="H11">
-        <v>6.957509</v>
+        <v>7.279902999999999</v>
       </c>
       <c r="I11">
-        <v>0.09895701081175239</v>
+        <v>0.09878230729940689</v>
       </c>
       <c r="J11">
-        <v>0.09895701081175239</v>
+        <v>0.09878230729940687</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.4846943333333333</v>
+        <v>0.5706193333333334</v>
       </c>
       <c r="N11">
-        <v>1.454083</v>
+        <v>1.711858</v>
       </c>
       <c r="O11">
-        <v>0.6433016390425528</v>
+        <v>0.4188640502130462</v>
       </c>
       <c r="P11">
-        <v>0.6433016390425528</v>
+        <v>0.4188640502130463</v>
       </c>
       <c r="Q11">
-        <v>1.124088395471889</v>
+        <v>1.384684465530444</v>
       </c>
       <c r="R11">
-        <v>10.116795559247</v>
+        <v>12.462160189774</v>
       </c>
       <c r="S11">
-        <v>0.06365920724995193</v>
+        <v>0.04137635732481933</v>
       </c>
       <c r="T11">
-        <v>0.06365920724995193</v>
+        <v>0.04137635732481933</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,7 +1148,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.319169666666667</v>
+        <v>2.426634333333333</v>
       </c>
       <c r="H12">
-        <v>6.957509</v>
+        <v>7.279902999999999</v>
       </c>
       <c r="I12">
-        <v>0.09895701081175239</v>
+        <v>0.09878230729940689</v>
       </c>
       <c r="J12">
-        <v>0.09895701081175239</v>
+        <v>0.09878230729940687</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1175,28 +1175,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.2197996666666667</v>
+        <v>0.4846943333333333</v>
       </c>
       <c r="N12">
-        <v>0.6593990000000001</v>
+        <v>1.454083</v>
       </c>
       <c r="O12">
-        <v>0.2917250648573845</v>
+        <v>0.3557906641356566</v>
       </c>
       <c r="P12">
-        <v>0.2917250648573845</v>
+        <v>0.3557906641356566</v>
       </c>
       <c r="Q12">
-        <v>0.5097527196767779</v>
+        <v>1.176175910438777</v>
       </c>
       <c r="R12">
-        <v>4.587774477091</v>
+        <v>10.585583193949</v>
       </c>
       <c r="S12">
-        <v>0.02886824039715137</v>
+        <v>0.0351458227189085</v>
       </c>
       <c r="T12">
-        <v>0.02886824039715137</v>
+        <v>0.0351458227189085</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,7 +1210,7 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.319169666666667</v>
+        <v>2.426634333333333</v>
       </c>
       <c r="H13">
-        <v>6.957509</v>
+        <v>7.279902999999999</v>
       </c>
       <c r="I13">
-        <v>0.09895701081175239</v>
+        <v>0.09878230729940689</v>
       </c>
       <c r="J13">
-        <v>0.09895701081175239</v>
+        <v>0.09878230729940687</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.048954</v>
+        <v>0.3069883333333334</v>
       </c>
       <c r="N13">
-        <v>0.146862</v>
+        <v>0.920965</v>
       </c>
       <c r="O13">
-        <v>0.06497329610006264</v>
+        <v>0.2253452856512971</v>
       </c>
       <c r="P13">
-        <v>0.06497329610006264</v>
+        <v>0.2253452856512971</v>
       </c>
       <c r="Q13">
-        <v>0.113532631862</v>
+        <v>0.7449484295994444</v>
       </c>
       <c r="R13">
-        <v>1.021793686758</v>
+        <v>6.704535866394999</v>
       </c>
       <c r="S13">
-        <v>0.006429563164649088</v>
+        <v>0.02226012725567906</v>
       </c>
       <c r="T13">
-        <v>0.006429563164649088</v>
+        <v>0.02226012725567905</v>
       </c>
     </row>
   </sheetData>
